--- a/Titus/Gurobi code/Final/Input/K-Zaterdag.xlsx
+++ b/Titus/Gurobi code/Final/Input/K-Zaterdag.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documenten\Werk\IntegrativePractical5\Titus\Gurobi code\Final\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE7D826F-19F0-4EBE-A92B-96A0AB469510}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{142F7226-A0CE-4B9C-84CD-1B27D8A47B0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="2820" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Saturday" sheetId="6" r:id="rId1"/>
@@ -493,7 +493,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>7553.5149459736576</v>
+        <v>7554</v>
       </c>
       <c r="C1">
         <v>0</v>
@@ -513,10 +513,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>6332.7448536950869</v>
+        <v>6333</v>
       </c>
       <c r="C2">
-        <v>4043.8009306727658</v>
+        <v>4044</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -533,16 +533,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>6943.1298998343718</v>
+        <v>6943</v>
       </c>
       <c r="C3">
-        <v>5035.6766306491054</v>
+        <v>5036</v>
       </c>
       <c r="D3">
-        <v>4806.7822383468729</v>
+        <v>4807</v>
       </c>
       <c r="E3">
-        <v>4272.6953229749979</v>
+        <v>4273</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -553,7 +553,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>4577.8878460446413</v>
+        <v>4578</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -613,13 +613,13 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>5111.9747614165153</v>
+        <v>5112</v>
       </c>
       <c r="C7">
-        <v>4959.3784998816946</v>
+        <v>4960</v>
       </c>
       <c r="D7">
-        <v>4883.0803691142837</v>
+        <v>4884</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -633,10 +633,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>5569.7635460209794</v>
+        <v>5570</v>
       </c>
       <c r="C8">
-        <v>5340.8691537187478</v>
+        <v>5341</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -673,10 +673,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>5493.4654152535686</v>
+        <v>5494</v>
       </c>
       <c r="C10">
-        <v>3891.2046691379451</v>
+        <v>3892</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -713,7 +713,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>4959.3784998816946</v>
+        <v>4960</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -733,10 +733,10 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>4883.0803691142837</v>
+        <v>4884</v>
       </c>
       <c r="C13">
-        <v>4043.8009306727658</v>
+        <v>4044</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -753,10 +753,10 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>6256.4467229276761</v>
+        <v>6257</v>
       </c>
       <c r="C14">
-        <v>4806.7822383468729</v>
+        <v>4807</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -773,7 +773,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>4654.1859768120512</v>
+        <v>4655</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -793,7 +793,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>4272.6953229749979</v>
+        <v>4273</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -813,10 +813,10 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>4272.6953229749979</v>
+        <v>4273</v>
       </c>
       <c r="C17">
-        <v>3891.2046691379451</v>
+        <v>3892</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>5188.2728921839262</v>
+        <v>5189</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -853,7 +853,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>6561.6392459973194</v>
+        <v>6562</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -913,13 +913,13 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>5874.9560690906228</v>
+        <v>5875</v>
       </c>
       <c r="C22">
-        <v>4883.0803691142837</v>
+        <v>4884</v>
       </c>
       <c r="D22">
-        <v>4425.2915845098196</v>
+        <v>4426</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -933,7 +933,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>5111.9747614165153</v>
+        <v>5112</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -973,10 +973,10 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>5340.8691537187478</v>
+        <v>5341</v>
       </c>
       <c r="C25">
-        <v>4501.5897152772304</v>
+        <v>4502</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1013,13 +1013,13 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>5340.8691537187478</v>
+        <v>5341</v>
       </c>
       <c r="C27">
-        <v>5035.6766306491054</v>
+        <v>5036</v>
       </c>
       <c r="D27">
-        <v>5188.2728921839262</v>
+        <v>5189</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1033,10 +1033,10 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>5264.571022951337</v>
+        <v>5265</v>
       </c>
       <c r="C28">
-        <v>4348.9934537424087</v>
+        <v>4349</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>5569.7635460209794</v>
+        <v>5570</v>
       </c>
       <c r="C29">
         <v>0</v>
